--- a/InterfaceTest/InterfaceTest/testfile/cases/complicationInterface.xlsx
+++ b/InterfaceTest/InterfaceTest/testfile/cases/complicationInterface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18420" windowHeight="12240"/>
+    <workbookView windowWidth="22068" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>case_name</t>
   </si>
@@ -48,16 +48,19 @@
     <t>12345</t>
   </si>
   <si>
+    <t>登录失败1</t>
+  </si>
+  <si>
+    <t>login_NameError</t>
+  </si>
+  <si>
+    <t>zbh</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>登录失败</t>
-  </si>
-  <si>
-    <t>login_NameError</t>
-  </si>
-  <si>
-    <t>zbh</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>login_NamelNull</t>
@@ -545,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -581,54 +584,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +598,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -649,15 +622,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,17 +651,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,15 +689,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +735,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,31 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,31 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,19 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,25 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,43 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,21 +958,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -984,11 +972,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,26 +1013,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,8 +1038,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,148 +1059,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,7 +1560,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1616,12 +1619,12 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1631,12 +1634,12 @@
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1646,7 +1649,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1693,22 +1696,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1716,16 +1719,16 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -1734,27 +1737,27 @@
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -1763,27 +1766,27 @@
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
@@ -1792,24 +1795,24 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
@@ -1818,53 +1821,53 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
@@ -1873,53 +1876,53 @@
         <v>8</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
@@ -1928,27 +1931,27 @@
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
@@ -1957,13 +1960,13 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2008,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2026,114 +2029,114 @@
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2174,28 +2177,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -2203,369 +2206,369 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2600,22 +2603,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -2623,230 +2626,230 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2855,48 +2858,48 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2931,58 +2934,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
@@ -2990,1086 +2993,1086 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="4:17">
